--- a/html/js/data/Students.xlsx
+++ b/html/js/data/Students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repos\Neo-Card\html\js\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repos\neo-card.github.io\html\js\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A8355-2E1F-4B6D-9FAA-D223A6EAC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74ACE7-FBB2-479A-B965-54054DF8F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Lakshay</t>
   </si>
@@ -43,16 +43,105 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Roll No.</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Mother's Name</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Lakshay Chhabra</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>PIET Sanskriti</t>
+  </si>
+  <si>
+    <t>Aviral Jain</t>
+  </si>
+  <si>
+    <t>Aditya Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Yuvneet Sapra</t>
+  </si>
+  <si>
+    <t>Raj Kumar Chhabra</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Efg</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>2823363.cse-aiml@pietgroup.co.in</t>
+  </si>
+  <si>
+    <t>2823359.cse-aiml@pietgroup.co.in</t>
+  </si>
+  <si>
+    <t>2823393.cse-aiml@pietgroup.co.in</t>
+  </si>
+  <si>
+    <t>2823416.cse-aiml@pietgroup.co.in</t>
+  </si>
+  <si>
+    <t>Mno</t>
+  </si>
+  <si>
+    <t>Psl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,59 +452,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2823363</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2823363</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>9050648248</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2823359</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2823359</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>9205993847</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2823393</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2823393</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>7080708301</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2823416</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2823416</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>8398069801</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{38DFB107-EDE5-4451-8E30-FF9191139D49}"/>
+    <hyperlink ref="J3:J5" r:id="rId2" display="2823363.cse-aiml@pietgroup.co.in" xr:uid="{21B13409-57CE-4AE5-9A98-946D83F76326}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{55BB1462-6F05-4F1E-B078-4477920B352E}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{A86BB64D-FA09-46B2-90F9-44278D94BF16}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{0A437053-DE15-4EF0-B3EF-ADEF45B470B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/html/js/data/Students.xlsx
+++ b/html/js/data/Students.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repos\neo-card.github.io\html\js\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repos\Neo-Card\html\js\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74ACE7-FBB2-479A-B965-54054DF8F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75B751-2150-4718-954C-1E95F49A865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Lakshay</t>
   </si>
@@ -118,6 +129,15 @@
   </si>
   <si>
     <t>Psl</t>
+  </si>
+  <si>
+    <t>Total Balance</t>
+  </si>
+  <si>
+    <t>Left Amount</t>
+  </si>
+  <si>
+    <t>Amount Spent</t>
   </si>
 </sst>
 </file>
@@ -452,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,9 +488,10 @@
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -501,8 +522,17 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2823363</v>
       </c>
@@ -533,8 +563,18 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>458</v>
+      </c>
+      <c r="M2">
+        <f>(K2 - L2)</f>
+        <v>542</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2823359</v>
       </c>
@@ -565,8 +605,18 @@
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="K3">
+        <v>1200</v>
+      </c>
+      <c r="L3">
+        <v>560</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="0">(K3 - L3)</f>
+        <v>640</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2823393</v>
       </c>
@@ -597,8 +647,18 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
+        <v>157</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2823416</v>
       </c>
@@ -628,6 +688,16 @@
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="K5">
+        <v>650</v>
+      </c>
+      <c r="L5">
+        <v>89</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/html/js/data/Students.xlsx
+++ b/html/js/data/Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repos\Neo-Card\html\js\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30def0bf6f1eb139/Desktop/Neo-Card/html/js/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75B751-2150-4718-954C-1E95F49A865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0A75B751-2150-4718-954C-1E95F49A865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47438C6-F1DE-4A1B-A0C9-001A3F943A42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Lakshay</t>
   </si>
@@ -138,6 +136,24 @@
   </si>
   <si>
     <t>Amount Spent</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>KRMU</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>lakshaychhabra248@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -472,26 +488,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -532,7 +548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2823363</v>
       </c>
@@ -574,7 +590,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2823359</v>
       </c>
@@ -616,7 +632,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2823393</v>
       </c>
@@ -658,7 +674,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2823416</v>
       </c>
@@ -698,6 +714,38 @@
       <c r="M5">
         <f t="shared" si="0"/>
         <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2823412</v>
+      </c>
+      <c r="B6">
+        <v>4122006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>2823412</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>9050648248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -708,6 +756,7 @@
     <hyperlink ref="J3" r:id="rId3" xr:uid="{55BB1462-6F05-4F1E-B078-4477920B352E}"/>
     <hyperlink ref="J4" r:id="rId4" xr:uid="{A86BB64D-FA09-46B2-90F9-44278D94BF16}"/>
     <hyperlink ref="J5" r:id="rId5" xr:uid="{0A437053-DE15-4EF0-B3EF-ADEF45B470B4}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{BDE8BCDE-EA13-4B6B-973A-A83ADBBC61E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
